--- a/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Calculations_v00.177_MAJOR_RELEASE.xlsx
+++ b/Obsidian_Core_Machine_Learning_Algorithms_____Source_Code_Which_Is_Useful_For_AGI_Level_1/Probabilistic Machine Learning/Significance_and_Confidence_Calculations_v00.177_MAJOR_RELEASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Dropbox\Projects - Personal\Enterprises\Obsidian Oblation\Michael Sinyangwe\Books\3rd Age Of Humanity\The Science of Artificial Intelligence - Part 5 - Probabilistic\Code\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9EF81-6466-4CD0-BC31-C00A5B681C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF500EE6-5C87-4241-83E5-838EAA885706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Granularised Duplicate Count</t>
   </si>
   <si>
-    <t>Nota Bene 4: 100% is the core value you must calculate from. In addition to this, you need to assign a mean or closest lesser sample, and a mean or closest greater sample to each projection datapoint, in order to deal with duplicate values properly. The significance is subtracted from 50, because we want to invert the distribution, such that the normalised scenario mean average has the greatest base distribution spot confidence %. You also need to proportionally normalise the output value by dividing by dataset sample count. Additionally, you have to 'inject' synthetic duplicate data. This is because otherwise the confidence % calculated will be too low due to the 'effective' sample loss where duplicate-to-duplicate divergence can't otherwise be modelled. As you can see, the synthesis of the duplicate data requires the application of a sample parameter duplication granularity range. On top of this, you must apply a total of 8 complex concave and convex sigmoid methods in order to generate smooth s-curve confidence percentages for projection datapoints which are not contained within the sample dataset. You must naturalise these sigmoid confidence percentages. Make sure to also include depression softening within the raw confidence method, which relies on the realtionship between depression range and dataset range, given a polarised boundary minima and maxima confidence. Additionally, you need to split polarise these convex and concave spot confidence methods, so that they form curves across density depression ranges where there are no sample parameters present. This has been done in the raw confidence % row. Then, you also need to correct the highest modal peak to 50%, and the lowest modal trough to 0%, by setting upper and lower limits. In effect, these two limits (25% and 0 %) act by squashing the intrinsic sigmoidal peak and trough exaggeration, and therefore the algorithm avoids overshoot and undershoot errors. Penultimately, multiply by a parameter count doubling factor, in order to normalise onto a 100% scale. Finally, you must make sure that you give all out-of-dataset range projections a confidence of 0%.</t>
-  </si>
-  <si>
     <t>Maximum Granularised Duplicate Count</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Zero confidence dataset range when only two unique parameter values exist across the samples (pseudo-binary probability), because fundamentally there is not really a distribution unless you have a minimum of 3 unique parameter values.</t>
+  </si>
+  <si>
+    <t>Nota Bene 4: 100% is the core value you must calculate from. In addition to this, you need to assign a mean or closest lesser sample, and a mean or closest greater sample to each projection datapoint, in order to deal with duplicate values properly. The significance is subtracted from 50, because we want to invert the distribution, such that the normalised scenario mean average has the greatest base distribution spot confidence %. You also need to proportionally normalise the output value by dividing by dataset sample count. Additionally, you have to 'inject' synthetic duplicate data. This is because otherwise the confidence % calculated will be too low due to the 'effective' sample loss where duplicate-to-duplicate divergence can't otherwise be modelled. As you can see, the synthesis of the duplicate data requires the application of a sample parameter duplication granularity range. On top of this, you must apply a total of 8 complex concave and convex sigmoid methods in order to generate smooth s-curve confidence percentages for projection datapoints which are not contained within the sample dataset. You must naturalise these sigmoid confidence percentages. Make sure to also include depression softening within the raw confidence method, which relies on the realtionship between depression range and dataset range, given a polarised boundary minima and maxima confidence. Additionally, you need to split polarise these convex and concave spot confidence methods, so that they form curves across density depression ranges where there are no sample parameters present. This has been done in the raw confidence % row. Penultimately, multiply by a parameter count doubling factor, in order to normalise onto a 100% scale. Finally, you must make sure that you give all out-of-dataset range projections a confidence of 0%.</t>
   </si>
 </sst>
 </file>
@@ -1021,6 +1021,15 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1030,13 +1039,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,32 +1087,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,19 +2976,19 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="99"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="6"/>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="40">
         <v>-500</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="41">
         <v>-500</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="41">
         <v>-500</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="41">
         <v>-500</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="41">
         <v>300</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="41">
         <v>500</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="41">
         <v>500</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="41">
         <v>0</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="41">
         <v>0</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="41">
         <v>500</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="41">
         <v>500</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="41">
         <v>500</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="41">
         <v>500</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="41">
         <v>500</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="41">
         <v>500</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="24" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="43">
         <v>500</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="19">
         <f>MAX($D$9,$D$10,$D$11,$D$12,$D$13,$D$14,$D$15,$D$16,$D$17,$D$18,$D$19,$D$20,$D$21,$D$22,$D$23,$D$24)</f>
@@ -4761,423 +4761,423 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="88"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="88"/>
-      <c r="AQ33" s="88"/>
-      <c r="AR33" s="88"/>
-      <c r="AS33" s="88"/>
-      <c r="AT33" s="88"/>
-      <c r="AU33" s="88"/>
-      <c r="AV33" s="88"/>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="88"/>
-      <c r="AY33" s="88"/>
-      <c r="AZ33" s="88"/>
-      <c r="BA33" s="88"/>
-      <c r="BB33" s="88"/>
-      <c r="BC33" s="88"/>
-      <c r="BD33" s="88"/>
-      <c r="BE33" s="88"/>
-      <c r="BF33" s="88"/>
-      <c r="BG33" s="88"/>
-      <c r="BH33" s="88"/>
-      <c r="BI33" s="88"/>
-      <c r="BJ33" s="88"/>
-      <c r="BK33" s="88"/>
-      <c r="BL33" s="88"/>
-      <c r="BM33" s="88"/>
-      <c r="BN33" s="88"/>
-      <c r="BO33" s="88"/>
-      <c r="BP33" s="88"/>
-      <c r="BQ33" s="88"/>
-      <c r="BR33" s="88"/>
-      <c r="BS33" s="88"/>
-      <c r="BT33" s="88"/>
-      <c r="BU33" s="88"/>
-      <c r="BV33" s="88"/>
-      <c r="BW33" s="88"/>
-      <c r="BX33" s="88"/>
-      <c r="BY33" s="88"/>
-      <c r="BZ33" s="88"/>
-      <c r="CA33" s="88"/>
-      <c r="CB33" s="88"/>
-      <c r="CC33" s="88"/>
-      <c r="CD33" s="88"/>
-      <c r="CE33" s="88"/>
-      <c r="CF33" s="88"/>
-      <c r="CG33" s="88"/>
-      <c r="CH33" s="88"/>
-      <c r="CI33" s="88"/>
-      <c r="CJ33" s="88"/>
-      <c r="CK33" s="88"/>
-      <c r="CL33" s="88"/>
-      <c r="CM33" s="88"/>
-      <c r="CN33" s="88"/>
-      <c r="CO33" s="88"/>
-      <c r="CP33" s="88"/>
-      <c r="CQ33" s="88"/>
-      <c r="CR33" s="88"/>
-      <c r="CS33" s="88"/>
-      <c r="CT33" s="88"/>
-      <c r="CU33" s="88"/>
-      <c r="CV33" s="88"/>
-      <c r="CW33" s="88"/>
-      <c r="CX33" s="88"/>
-      <c r="CY33" s="88"/>
-      <c r="CZ33" s="89"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="94"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="94"/>
+      <c r="AO33" s="94"/>
+      <c r="AP33" s="94"/>
+      <c r="AQ33" s="94"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="94"/>
+      <c r="AU33" s="94"/>
+      <c r="AV33" s="94"/>
+      <c r="AW33" s="94"/>
+      <c r="AX33" s="94"/>
+      <c r="AY33" s="94"/>
+      <c r="AZ33" s="94"/>
+      <c r="BA33" s="94"/>
+      <c r="BB33" s="94"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+      <c r="BN33" s="94"/>
+      <c r="BO33" s="94"/>
+      <c r="BP33" s="94"/>
+      <c r="BQ33" s="94"/>
+      <c r="BR33" s="94"/>
+      <c r="BS33" s="94"/>
+      <c r="BT33" s="94"/>
+      <c r="BU33" s="94"/>
+      <c r="BV33" s="94"/>
+      <c r="BW33" s="94"/>
+      <c r="BX33" s="94"/>
+      <c r="BY33" s="94"/>
+      <c r="BZ33" s="94"/>
+      <c r="CA33" s="94"/>
+      <c r="CB33" s="94"/>
+      <c r="CC33" s="94"/>
+      <c r="CD33" s="94"/>
+      <c r="CE33" s="94"/>
+      <c r="CF33" s="94"/>
+      <c r="CG33" s="94"/>
+      <c r="CH33" s="94"/>
+      <c r="CI33" s="94"/>
+      <c r="CJ33" s="94"/>
+      <c r="CK33" s="94"/>
+      <c r="CL33" s="94"/>
+      <c r="CM33" s="94"/>
+      <c r="CN33" s="94"/>
+      <c r="CO33" s="94"/>
+      <c r="CP33" s="94"/>
+      <c r="CQ33" s="94"/>
+      <c r="CR33" s="94"/>
+      <c r="CS33" s="94"/>
+      <c r="CT33" s="94"/>
+      <c r="CU33" s="94"/>
+      <c r="CV33" s="94"/>
+      <c r="CW33" s="94"/>
+      <c r="CX33" s="94"/>
+      <c r="CY33" s="94"/>
+      <c r="CZ33" s="95"/>
     </row>
     <row r="34" spans="1:104" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="100">
+      <c r="B34" s="78">
         <v>-600</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="79">
         <v>-500</v>
       </c>
-      <c r="D34" s="101">
+      <c r="D34" s="79">
         <v>-490</v>
       </c>
-      <c r="E34" s="101">
+      <c r="E34" s="79">
         <v>-480</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="79">
         <v>-470</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="79">
         <v>-460</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="79">
         <v>-450</v>
       </c>
-      <c r="I34" s="101">
+      <c r="I34" s="79">
         <v>-440</v>
       </c>
-      <c r="J34" s="101">
+      <c r="J34" s="79">
         <v>-430</v>
       </c>
-      <c r="K34" s="101">
+      <c r="K34" s="79">
         <v>-420</v>
       </c>
-      <c r="L34" s="101">
+      <c r="L34" s="79">
         <v>-410</v>
       </c>
-      <c r="M34" s="101">
+      <c r="M34" s="79">
         <v>-400</v>
       </c>
-      <c r="N34" s="101">
+      <c r="N34" s="79">
         <v>-390</v>
       </c>
-      <c r="O34" s="101">
+      <c r="O34" s="79">
         <v>-380</v>
       </c>
-      <c r="P34" s="101">
+      <c r="P34" s="79">
         <v>-370</v>
       </c>
-      <c r="Q34" s="101">
+      <c r="Q34" s="79">
         <v>-360</v>
       </c>
-      <c r="R34" s="101">
+      <c r="R34" s="79">
         <v>-350</v>
       </c>
-      <c r="S34" s="101">
+      <c r="S34" s="79">
         <v>-340</v>
       </c>
-      <c r="T34" s="101">
+      <c r="T34" s="79">
         <v>-330</v>
       </c>
-      <c r="U34" s="101">
+      <c r="U34" s="79">
         <v>-320</v>
       </c>
-      <c r="V34" s="101">
+      <c r="V34" s="79">
         <v>-310</v>
       </c>
-      <c r="W34" s="101">
+      <c r="W34" s="79">
         <v>-300</v>
       </c>
-      <c r="X34" s="101">
+      <c r="X34" s="79">
         <v>-290</v>
       </c>
-      <c r="Y34" s="101">
+      <c r="Y34" s="79">
         <v>-280</v>
       </c>
-      <c r="Z34" s="101">
+      <c r="Z34" s="79">
         <v>-270</v>
       </c>
-      <c r="AA34" s="101">
+      <c r="AA34" s="79">
         <v>-260</v>
       </c>
-      <c r="AB34" s="101">
+      <c r="AB34" s="79">
         <v>-250</v>
       </c>
-      <c r="AC34" s="101">
+      <c r="AC34" s="79">
         <v>-240</v>
       </c>
-      <c r="AD34" s="101">
+      <c r="AD34" s="79">
         <v>-230</v>
       </c>
-      <c r="AE34" s="101">
+      <c r="AE34" s="79">
         <v>-220</v>
       </c>
-      <c r="AF34" s="101">
+      <c r="AF34" s="79">
         <v>-210</v>
       </c>
-      <c r="AG34" s="101">
+      <c r="AG34" s="79">
         <v>-200</v>
       </c>
-      <c r="AH34" s="101">
+      <c r="AH34" s="79">
         <v>-190</v>
       </c>
-      <c r="AI34" s="101">
+      <c r="AI34" s="79">
         <v>-180</v>
       </c>
-      <c r="AJ34" s="101">
+      <c r="AJ34" s="79">
         <v>-170</v>
       </c>
-      <c r="AK34" s="101">
+      <c r="AK34" s="79">
         <v>-160</v>
       </c>
-      <c r="AL34" s="101">
+      <c r="AL34" s="79">
         <v>-150</v>
       </c>
-      <c r="AM34" s="101">
+      <c r="AM34" s="79">
         <v>-140</v>
       </c>
-      <c r="AN34" s="101">
+      <c r="AN34" s="79">
         <v>-130</v>
       </c>
-      <c r="AO34" s="101">
+      <c r="AO34" s="79">
         <v>-120</v>
       </c>
-      <c r="AP34" s="101">
+      <c r="AP34" s="79">
         <v>-110</v>
       </c>
-      <c r="AQ34" s="101">
+      <c r="AQ34" s="79">
         <v>-100</v>
       </c>
-      <c r="AR34" s="101">
+      <c r="AR34" s="79">
         <v>-90</v>
       </c>
-      <c r="AS34" s="101">
+      <c r="AS34" s="79">
         <v>-80</v>
       </c>
-      <c r="AT34" s="101">
+      <c r="AT34" s="79">
         <v>-70</v>
       </c>
-      <c r="AU34" s="101">
+      <c r="AU34" s="79">
         <v>-60</v>
       </c>
-      <c r="AV34" s="101">
+      <c r="AV34" s="79">
         <v>-50</v>
       </c>
-      <c r="AW34" s="101">
+      <c r="AW34" s="79">
         <v>-40</v>
       </c>
-      <c r="AX34" s="101">
+      <c r="AX34" s="79">
         <v>-30</v>
       </c>
-      <c r="AY34" s="101">
+      <c r="AY34" s="79">
         <v>-20</v>
       </c>
-      <c r="AZ34" s="101">
+      <c r="AZ34" s="79">
         <v>-10</v>
       </c>
-      <c r="BA34" s="101">
+      <c r="BA34" s="79">
         <v>0</v>
       </c>
-      <c r="BB34" s="101">
+      <c r="BB34" s="79">
         <v>10</v>
       </c>
-      <c r="BC34" s="101">
+      <c r="BC34" s="79">
         <v>20</v>
       </c>
-      <c r="BD34" s="101">
+      <c r="BD34" s="79">
         <v>30</v>
       </c>
-      <c r="BE34" s="101">
+      <c r="BE34" s="79">
         <v>40</v>
       </c>
-      <c r="BF34" s="101">
+      <c r="BF34" s="79">
         <v>50</v>
       </c>
-      <c r="BG34" s="101">
+      <c r="BG34" s="79">
         <v>60</v>
       </c>
-      <c r="BH34" s="101">
+      <c r="BH34" s="79">
         <v>70</v>
       </c>
-      <c r="BI34" s="101">
+      <c r="BI34" s="79">
         <v>80</v>
       </c>
-      <c r="BJ34" s="101">
+      <c r="BJ34" s="79">
         <v>90</v>
       </c>
-      <c r="BK34" s="101">
+      <c r="BK34" s="79">
         <v>100</v>
       </c>
-      <c r="BL34" s="101">
+      <c r="BL34" s="79">
         <v>110</v>
       </c>
-      <c r="BM34" s="101">
+      <c r="BM34" s="79">
         <v>120</v>
       </c>
-      <c r="BN34" s="101">
+      <c r="BN34" s="79">
         <v>130</v>
       </c>
-      <c r="BO34" s="101">
+      <c r="BO34" s="79">
         <v>140</v>
       </c>
-      <c r="BP34" s="101">
+      <c r="BP34" s="79">
         <v>150</v>
       </c>
-      <c r="BQ34" s="101">
+      <c r="BQ34" s="79">
         <v>160</v>
       </c>
-      <c r="BR34" s="101">
+      <c r="BR34" s="79">
         <v>170</v>
       </c>
-      <c r="BS34" s="101">
+      <c r="BS34" s="79">
         <v>180</v>
       </c>
-      <c r="BT34" s="101">
+      <c r="BT34" s="79">
         <v>190</v>
       </c>
-      <c r="BU34" s="101">
+      <c r="BU34" s="79">
         <v>200</v>
       </c>
-      <c r="BV34" s="101">
+      <c r="BV34" s="79">
         <v>210</v>
       </c>
-      <c r="BW34" s="101">
+      <c r="BW34" s="79">
         <v>220</v>
       </c>
-      <c r="BX34" s="101">
+      <c r="BX34" s="79">
         <v>230</v>
       </c>
-      <c r="BY34" s="101">
+      <c r="BY34" s="79">
         <v>240</v>
       </c>
-      <c r="BZ34" s="101">
+      <c r="BZ34" s="79">
         <v>250</v>
       </c>
-      <c r="CA34" s="101">
+      <c r="CA34" s="79">
         <v>260</v>
       </c>
-      <c r="CB34" s="101">
+      <c r="CB34" s="79">
         <v>270</v>
       </c>
-      <c r="CC34" s="101">
+      <c r="CC34" s="79">
         <v>280</v>
       </c>
-      <c r="CD34" s="101">
+      <c r="CD34" s="79">
         <v>290</v>
       </c>
-      <c r="CE34" s="101">
+      <c r="CE34" s="79">
         <v>300</v>
       </c>
-      <c r="CF34" s="101">
+      <c r="CF34" s="79">
         <v>310</v>
       </c>
-      <c r="CG34" s="101">
+      <c r="CG34" s="79">
         <v>320</v>
       </c>
-      <c r="CH34" s="101">
+      <c r="CH34" s="79">
         <v>330</v>
       </c>
-      <c r="CI34" s="101">
+      <c r="CI34" s="79">
         <v>340</v>
       </c>
-      <c r="CJ34" s="101">
+      <c r="CJ34" s="79">
         <v>350</v>
       </c>
-      <c r="CK34" s="101">
+      <c r="CK34" s="79">
         <v>360</v>
       </c>
-      <c r="CL34" s="101">
+      <c r="CL34" s="79">
         <v>370</v>
       </c>
-      <c r="CM34" s="101">
+      <c r="CM34" s="79">
         <v>380</v>
       </c>
-      <c r="CN34" s="101">
+      <c r="CN34" s="79">
         <v>390</v>
       </c>
-      <c r="CO34" s="101">
+      <c r="CO34" s="79">
         <v>400</v>
       </c>
-      <c r="CP34" s="101">
+      <c r="CP34" s="79">
         <v>410</v>
       </c>
-      <c r="CQ34" s="101">
+      <c r="CQ34" s="79">
         <v>420</v>
       </c>
-      <c r="CR34" s="101">
+      <c r="CR34" s="79">
         <v>430</v>
       </c>
-      <c r="CS34" s="101">
+      <c r="CS34" s="79">
         <v>440</v>
       </c>
-      <c r="CT34" s="101">
+      <c r="CT34" s="79">
         <v>450</v>
       </c>
-      <c r="CU34" s="101">
+      <c r="CU34" s="79">
         <v>460</v>
       </c>
-      <c r="CV34" s="101">
+      <c r="CV34" s="79">
         <v>470</v>
       </c>
-      <c r="CW34" s="101">
+      <c r="CW34" s="79">
         <v>480</v>
       </c>
-      <c r="CX34" s="101">
+      <c r="CX34" s="79">
         <v>490</v>
       </c>
-      <c r="CY34" s="101">
+      <c r="CY34" s="79">
         <v>500</v>
       </c>
-      <c r="CZ34" s="102">
+      <c r="CZ34" s="80">
         <v>600</v>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="50" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -11899,263 +11899,263 @@
     </row>
     <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="86"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="92"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="82"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="82"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="82"/>
-      <c r="P71" s="83"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="101"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="102"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="80"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+      <c r="L72" s="82"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="82"/>
+      <c r="O72" s="82"/>
+      <c r="P72" s="83"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="78" t="s">
+      <c r="A73" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="80"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+      <c r="L73" s="82"/>
+      <c r="M73" s="82"/>
+      <c r="N73" s="82"/>
+      <c r="O73" s="82"/>
+      <c r="P73" s="83"/>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="78" t="s">
+      <c r="A74" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="79"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="80"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="82"/>
+      <c r="M74" s="82"/>
+      <c r="N74" s="82"/>
+      <c r="O74" s="82"/>
+      <c r="P74" s="83"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="79"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="80"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="82"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="83"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="79"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="79"/>
-      <c r="I76" s="79"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="80"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="82"/>
+      <c r="P76" s="83"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98"/>
-      <c r="K77" s="98"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="98"/>
-      <c r="O77" s="98"/>
-      <c r="P77" s="99"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="89"/>
     </row>
     <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="79"/>
-      <c r="J78" s="79"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="79"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="80"/>
+      <c r="A78" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="82"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+      <c r="P78" s="83"/>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="78" t="s">
+      <c r="A79" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="79"/>
-      <c r="C79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="79"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="80"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="82"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
+      <c r="L79" s="82"/>
+      <c r="M79" s="82"/>
+      <c r="N79" s="82"/>
+      <c r="O79" s="82"/>
+      <c r="P79" s="83"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="79"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="79"/>
-      <c r="I80" s="79"/>
-      <c r="J80" s="79"/>
-      <c r="K80" s="79"/>
-      <c r="L80" s="79"/>
-      <c r="M80" s="79"/>
-      <c r="N80" s="79"/>
-      <c r="O80" s="79"/>
-      <c r="P80" s="80"/>
+      <c r="A80" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="82"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="82"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+      <c r="L80" s="82"/>
+      <c r="M80" s="82"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="82"/>
+      <c r="P80" s="83"/>
     </row>
     <row r="81" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="94" t="s">
+      <c r="A81" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="95"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="95"/>
-      <c r="P81" s="96"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="85"/>
+      <c r="P81" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="B33:CZ33"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A80:P80"/>
     <mergeCell ref="A81:P81"/>
     <mergeCell ref="A79:P79"/>
     <mergeCell ref="A78:P78"/>
     <mergeCell ref="A76:P76"/>
     <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="B33:CZ33"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A71:P71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
